--- a/realworld/question/裸聊APP.xlsx
+++ b/realworld/question/裸聊APP.xlsx
@@ -29,36 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>题目</t>
   </si>
   <si>
-    <t>答案</t>
+    <t>What specific permissions has the application requested?</t>
   </si>
   <si>
-    <t>手机中诈骗 APP 的包名是</t>
+    <t xml:space="preserve">What is the core operational objective of the application? </t>
   </si>
   <si>
-    <t>w2a.W2Ah5.jsgjzfx.org.cn</t>
+    <t>What categories of sensitive user data has the application accessed or collected? In cases where data retrieval is identified, is the data stored locally on the device or transmitted to external servers?</t>
   </si>
   <si>
-    <t>手机中诈骗 APP 连接的服务器地址是</t>
-  </si>
-  <si>
-    <t>192.168.137.125</t>
-  </si>
-  <si>
-    <t>手机中诈骗 APP 的打包 ID 是</t>
-  </si>
-  <si>
-    <t>__W2A__h5.jsgjzfx.org.cn</t>
-  </si>
-  <si>
-    <t>手机中诈骗 APP 的主启动项是</t>
-  </si>
-  <si>
-    <t>io.dcloud.PandoraEntry</t>
+    <t xml:space="preserve">Does the application rely on a backend server to facilitate its operations? If so, what is the precise server address, and how does it interact with the application’s functionality?  </t>
   </si>
 </sst>
 </file>
@@ -989,52 +974,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
